--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -3,33 +3,33 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="24" autoFilterDateGrouping="1" firstSheet="20" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12645" windowWidth="22260" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12300" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Colors" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stomach epithelia" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Small intestine epithelia" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Colon epithelia" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Epidermal cells" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dermal fibroblasts" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Neutrophils" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thymocytes" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mature T cells" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="B cells progenitors" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transitional B cells" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mature B cells" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Erythrocytes" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Endothelial cells" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Adipocytes" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Myocytes" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Neurons" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Glial cells" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monocytes" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cardiomyocytes" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alveolar epithelial cells" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alveolar macrophages" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bronchial epithelial cells" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lung interstitial cells" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Erythrocytes" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Neutrophils" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thymocytes" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mature T cells" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="B cells progenitors" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transitional B cells" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mature B cells" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monocytes" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stomach epithelia" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Small intestine epithelia" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Colon epithelia" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Epidermal cells" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dermal fibroblasts" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Endothelial cells" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alveolar epithelial cells" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alveolar macrophages" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bronchial epithelial cells" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lung interstitial cells" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Adipocytes" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Myocytes" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cardiomyocytes" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Neurons" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Glial cells" sheetId="24" state="visible" r:id="rId24"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hepatocytes" sheetId="25" state="visible" r:id="rId25"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kupffer cells" sheetId="26" state="visible" r:id="rId26"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stellate cells" sheetId="27" state="visible" r:id="rId27"/>
@@ -56,7 +56,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -74,6 +74,15 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <charset val="177"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
@@ -86,54 +95,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <charset val="177"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
       <name val="Var(--jp-code-font-family)"/>
       <color theme="1"/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -148,7 +112,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEECE0"/>
+        <fgColor rgb="FF9C0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB74646"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE69696"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8C284D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA63C51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC25174"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD890A7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD37591"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7916C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD95D29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF86AB5F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66A150"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF527B2D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2A5B30"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCDA046"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBC8044"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8A5E31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5D3F21"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF19568A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF788278"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF646E64"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3A8E8D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7B58B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -160,190 +256,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC7B58B"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF3A8E8D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF646E64"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF788278"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF19568A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5D3F21"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8A5E31"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBC8044"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCDA046"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF2A5B30"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF66A150"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF86AB5F"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD95D29"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE7916C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD37591"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD890A7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC25174"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA63C51"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8C284D"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFB74646"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9C0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE69696"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF527B2D"/>
+        <fgColor rgb="FFEEECE0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.3999755851924192"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.3999755851924192"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -388,62 +311,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="4" tint="0.3999755851924192"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+        <color theme="4" tint="0.3999755851924192"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,109 +333,91 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" readingOrder="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" readingOrder="1" vertical="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="4" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="1" fillId="4" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf applyAlignment="1" borderId="3" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="6" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="7" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="8" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="9" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="10" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="11" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="12" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="13" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="14" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="15" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="16" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="17" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="1" fillId="18" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="19" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="1" fillId="20" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="21" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="22" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="23" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" readingOrder="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="5" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="1" fillId="24" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" readingOrder="1" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="6" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="7" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="8" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="9" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="1" fillId="10" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="11" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf applyAlignment="1" borderId="1" fillId="12" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="15" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="16" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="17" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="18" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="19" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="20" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="21" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="24" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" readingOrder="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="23" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" readingOrder="1" vertical="center" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="22" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="25" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="25" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="1" fillId="26" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="8" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="9" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="14" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="13" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="26" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" readingOrder="1" wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="10" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="11" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="12" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1458,11 +1314,11 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="25.5703125"/>
     <col bestFit="1" customWidth="1" max="3" min="3" width="16.42578125"/>
@@ -1471,17 +1327,17 @@
   </cols>
   <sheetData>
     <row customHeight="1" ht="16.5" r="1">
-      <c r="A1" s="25" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>cell type</t>
         </is>
       </c>
-      <c r="B1" s="24" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>tissue</t>
         </is>
       </c>
-      <c r="C1" s="24" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>sub tissue</t>
         </is>
@@ -1493,551 +1349,554 @@
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Erythrocytes</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="C2" s="2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>erythrocytes</t>
         </is>
       </c>
-      <c r="D2" s="23" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>rgb(156, 0, 0)</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Neutrophils</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>neutrophils</t>
         </is>
       </c>
-      <c r="D3" s="28" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>rgb(183,70,70)</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Monocytes</t>
         </is>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>Monocytes</t>
         </is>
       </c>
-      <c r="D4" s="30" t="inlineStr">
+      <c r="D4" s="6" t="inlineStr">
         <is>
           <t>rgb(230, 150, 150)</t>
         </is>
       </c>
-      <c r="G4" s="31" t="n"/>
+      <c r="G4" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="16.5" r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Thymocytes</t>
         </is>
       </c>
-      <c r="B5" s="2" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>T cells</t>
         </is>
       </c>
-      <c r="D5" s="29" t="inlineStr">
+      <c r="D5" s="8" t="inlineStr">
         <is>
           <t>rgb(140, 40, 77)</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Mature T cells</t>
         </is>
       </c>
-      <c r="B6" s="2" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>T cells</t>
         </is>
       </c>
-      <c r="D6" s="22" t="inlineStr">
+      <c r="D6" s="9" t="inlineStr">
         <is>
           <t>rgb(166, 60, 81)</t>
         </is>
       </c>
+      <c r="E6" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="16.5" r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>B cells progenitors</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="C7" s="2" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>B cells</t>
         </is>
       </c>
-      <c r="D7" s="21" t="inlineStr">
+      <c r="D7" s="10" t="inlineStr">
         <is>
           <t>rgb(194, 81, 116)</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>Transitional B cells</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
+      <c r="C8" s="3" t="inlineStr">
         <is>
           <t>B cells</t>
         </is>
       </c>
-      <c r="D8" s="20" t="inlineStr">
+      <c r="D8" s="11" t="inlineStr">
         <is>
           <t>rgb(216, 144, 167)</t>
         </is>
       </c>
+      <c r="E8" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="16.5" r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>Mature B cells</t>
         </is>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>Blood</t>
         </is>
       </c>
-      <c r="C9" s="2" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>B cells</t>
         </is>
       </c>
-      <c r="D9" s="19" t="inlineStr">
+      <c r="D9" s="12" t="inlineStr">
         <is>
           <t>rgb(211, 117, 145)</t>
         </is>
       </c>
+      <c r="E9" s="7" t="n"/>
     </row>
     <row customHeight="1" ht="16.5" r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>Dermal fibroblasts</t>
         </is>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>epithelia</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>skin cells</t>
         </is>
       </c>
-      <c r="D10" s="18" t="inlineStr">
+      <c r="D10" s="13" t="inlineStr">
         <is>
           <t>rgb(231, 145, 108)</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>Epidermal cells</t>
         </is>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>epithelia</t>
         </is>
       </c>
-      <c r="C11" s="2" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>skin cells</t>
         </is>
       </c>
-      <c r="D11" s="17" t="inlineStr">
+      <c r="D11" s="14" t="inlineStr">
         <is>
           <t>rgb(217, 93, 41)</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>Alveolar epithelial cells</t>
         </is>
       </c>
-      <c r="B12" s="2" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>epithelia</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>lung cells</t>
         </is>
       </c>
-      <c r="D12" s="16" t="inlineStr">
+      <c r="D12" s="15" t="inlineStr">
         <is>
           <t>rgb(134, 171, 95)</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>Bronchial epithelial cells</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>epithelia</t>
         </is>
       </c>
-      <c r="C13" s="2" t="inlineStr">
+      <c r="C13" s="3" t="inlineStr">
         <is>
           <t>lung cells</t>
         </is>
       </c>
-      <c r="D13" s="34" t="inlineStr">
+      <c r="D13" s="16" t="inlineStr">
         <is>
           <t>rgb(102, 161, 80)</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>Lung interstitial cells</t>
         </is>
       </c>
-      <c r="B14" s="2" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>epithelia</t>
         </is>
       </c>
-      <c r="C14" s="2" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>lung cells</t>
         </is>
       </c>
-      <c r="D14" s="36" t="inlineStr">
+      <c r="D14" s="17" t="inlineStr">
         <is>
           <t>rgb(82, 123, 45)</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>Alveolar macrophages</t>
         </is>
       </c>
-      <c r="B15" s="2" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>epithelia</t>
         </is>
       </c>
-      <c r="C15" s="2" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>lung cells</t>
         </is>
       </c>
-      <c r="D15" s="35" t="inlineStr">
+      <c r="D15" s="18" t="inlineStr">
         <is>
           <t>rgb(42, 91, 48)</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>Endothelial cells</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>epithelia</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
+      <c r="C16" s="3" t="inlineStr">
         <is>
           <t>surface endothelial cells</t>
         </is>
       </c>
-      <c r="D16" s="15" t="inlineStr">
+      <c r="D16" s="19" t="inlineStr">
         <is>
           <t>rgb(205, 160, 70)</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>Stomach epithelia</t>
         </is>
       </c>
-      <c r="B17" s="2" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>epithelia</t>
         </is>
       </c>
-      <c r="C17" s="2" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>intestinal epithelial cells</t>
         </is>
       </c>
-      <c r="D17" s="14" t="inlineStr">
+      <c r="D17" s="20" t="inlineStr">
         <is>
           <t>rgb(188, 128, 68)</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>Small intestine epithelia</t>
         </is>
       </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>epithelia</t>
         </is>
       </c>
-      <c r="C18" s="2" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>intestinal epithelial cells</t>
         </is>
       </c>
-      <c r="D18" s="13" t="inlineStr">
+      <c r="D18" s="21" t="inlineStr">
         <is>
           <t>rgb(138, 94, 49)</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>Colon epithelia</t>
         </is>
       </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>epithelia</t>
         </is>
       </c>
-      <c r="C19" s="2" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>intestinal epithelial cells</t>
         </is>
       </c>
-      <c r="D19" s="12" t="inlineStr">
+      <c r="D19" s="22" t="inlineStr">
         <is>
           <t>rgb(93, 63, 33)</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>Hepatocytes</t>
         </is>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>Liver</t>
         </is>
       </c>
-      <c r="C20" s="2" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>hepatocytes</t>
         </is>
       </c>
-      <c r="D20" s="11" t="inlineStr">
+      <c r="D20" s="23" t="inlineStr">
         <is>
           <t>rgb(25, 86, 138)</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="21">
-      <c r="A21" s="2" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>Glial cells</t>
         </is>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B21" s="3" t="inlineStr">
         <is>
           <t>Brain</t>
         </is>
       </c>
-      <c r="C21" s="2" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t>brain cells</t>
         </is>
       </c>
-      <c r="D21" s="10" t="inlineStr">
+      <c r="D21" s="24" t="inlineStr">
         <is>
           <t>rgb(120, 130, 120)</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>Neurons</t>
         </is>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>Brain</t>
         </is>
       </c>
-      <c r="C22" s="2" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>brain cells</t>
         </is>
       </c>
-      <c r="D22" s="9" t="inlineStr">
+      <c r="D22" s="25" t="inlineStr">
         <is>
           <t>rgb(100, 110, 100)</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="23">
-      <c r="A23" s="2" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>Adipocytes</t>
         </is>
       </c>
-      <c r="B23" s="2" t="inlineStr">
+      <c r="B23" s="3" t="inlineStr">
         <is>
           <t>Adipose tissue</t>
         </is>
       </c>
-      <c r="C23" s="2" t="inlineStr">
+      <c r="C23" s="3" t="inlineStr">
         <is>
           <t>adipocytes (fat cells)</t>
         </is>
       </c>
-      <c r="D23" s="8" t="inlineStr">
+      <c r="D23" s="26" t="inlineStr">
         <is>
           <t>rgb(58, 142, 141)</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="16.5" r="24">
-      <c r="A24" s="2" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>Myocytes</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
+      <c r="B24" s="27" t="inlineStr">
         <is>
           <t>Muscles</t>
         </is>
       </c>
-      <c r="C24" s="2" t="inlineStr">
+      <c r="C24" s="3" t="inlineStr">
         <is>
           <t>skeletal muscle</t>
         </is>
       </c>
-      <c r="D24" s="7" t="inlineStr">
+      <c r="D24" s="28" t="inlineStr">
         <is>
           <t>rgb(199, 181, 139)</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="17.25" r="25">
-      <c r="A25" s="6" t="inlineStr">
+      <c r="A25" s="29" t="inlineStr">
         <is>
           <t>Cardiomyocytes</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
+      <c r="B25" s="27" t="inlineStr">
         <is>
           <t>Muscles</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
+      <c r="C25" s="30" t="inlineStr">
         <is>
           <t>heart muscle cells</t>
         </is>
       </c>
-      <c r="D25" s="3" t="inlineStr">
+      <c r="D25" s="31" t="inlineStr">
         <is>
           <t>rgb(206, 163, 109)</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B26" s="3" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C26" s="3" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="D26" s="32" t="inlineStr">
         <is>
           <t>rgb(238, 236, 224)</t>
         </is>
@@ -2045,6 +1904,7 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
   <tableParts count="1">
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
@@ -2054,11 +1914,11 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="FFC25174"/>
+    <tabColor rgb="00bc8044"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2067,27 +1927,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="32" t="inlineStr">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B1" s="32" t="inlineStr">
+      <c r="B1" s="33" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="32" t="inlineStr">
+      <c r="C1" s="33" t="inlineStr">
         <is>
           <t>Units</t>
         </is>
       </c>
-      <c r="D1" s="32" t="inlineStr">
+      <c r="D1" s="33" t="inlineStr">
         <is>
           <t>Uncertainty</t>
         </is>
       </c>
-      <c r="E1" s="32" t="inlineStr">
+      <c r="E1" s="33" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
@@ -2100,19 +1960,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5518684500</v>
+        <v>17000000000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cells</t>
+          <t>cells</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.4</v>
+        <v>4000000000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -2123,7 +1983,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.278041497629716</v>
+        <v>3.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2131,22 +1991,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cellular turnovr rate</t>
+          <t>cellular turnover rate</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4318079272.257649</v>
+        <v>5000000000</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2154,11 +2014,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.9</v>
+        <v>1100000000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2029,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>185.7421814366369</v>
+        <v>810</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2177,22 +2037,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.1</v>
+        <v>90</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cellular mass turnovr rate</t>
+          <t>cellular mass turnover rate</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8020494636454613</v>
+        <v>4.1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2200,11 +2060,11 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -2215,7 +2075,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.025052497690556</v>
+        <v>14</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2223,11 +2083,62 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lifespan in rodents</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>extrapolated cellular turnover rate</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cells per day</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>extrapolated cellular mass turnover rate</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>grams per day</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -2239,11 +2150,11 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="FFD890A7"/>
+    <tabColor rgb="008a5e31"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2252,27 +2163,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="32" t="inlineStr">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B1" s="32" t="inlineStr">
+      <c r="B1" s="33" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="32" t="inlineStr">
+      <c r="C1" s="33" t="inlineStr">
         <is>
           <t>Units</t>
         </is>
       </c>
-      <c r="D1" s="32" t="inlineStr">
+      <c r="D1" s="33" t="inlineStr">
         <is>
           <t>Uncertainty</t>
         </is>
       </c>
-      <c r="E1" s="32" t="inlineStr">
+      <c r="E1" s="33" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
@@ -2285,19 +2196,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2526367501.194497</v>
+        <v>120000000000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cells</t>
+          <t>cells</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.7</v>
+        <v>20000000000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -2308,7 +2219,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.14173165707868</v>
+        <v>2.8</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2316,22 +2227,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cellular turnovr rate</t>
+          <t>cellular turnover rate</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83816269.4146734</v>
+        <v>42000000000</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2339,11 +2250,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.8</v>
+        <v>12000000000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -2354,7 +2265,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>185.7421814366369</v>
+        <v>840</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2362,22 +2273,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.1</v>
+        <v>160</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cellular mass turnovr rate</t>
+          <t>cellular mass turnover rate</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0155682167209623</v>
+        <v>35</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2385,11 +2296,11 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.8</v>
+        <v>12</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2311,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4692530107824912</v>
+        <v>100</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2408,11 +2319,62 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.7</v>
+        <v>20</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lifespan in rodents</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>extrapolated cellular turnover rate</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cells per day</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>extrapolated cellular mass turnover rate</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>grams per day</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -2424,11 +2386,11 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="FFD37591"/>
+    <tabColor rgb="005d3f21"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2437,27 +2399,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="32" t="inlineStr">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B1" s="32" t="inlineStr">
+      <c r="B1" s="33" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="32" t="inlineStr">
+      <c r="C1" s="33" t="inlineStr">
         <is>
           <t>Units</t>
         </is>
       </c>
-      <c r="D1" s="32" t="inlineStr">
+      <c r="D1" s="33" t="inlineStr">
         <is>
           <t>Uncertainty</t>
         </is>
       </c>
-      <c r="E1" s="32" t="inlineStr">
+      <c r="E1" s="33" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
@@ -2470,19 +2432,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>320588482501.9055</v>
+        <v>60000000000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cells</t>
+          <t>cells</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.2</v>
+        <v>20000000000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62.86493458200684</v>
+        <v>2.8</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2501,22 +2463,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cellular turnovr rate</t>
+          <t>cellular turnover rate</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5099639165.03723</v>
+        <v>20000000000</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2524,11 +2486,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.3</v>
+        <v>8000000000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -2539,7 +2501,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>185.7421814366369</v>
+        <v>840</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2547,22 +2509,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.1</v>
+        <v>160</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cellular mass turnovr rate</t>
+          <t>cellular mass turnover rate</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9472181030537248</v>
+        <v>17</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2570,11 +2532,11 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.3</v>
+        <v>7</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -2585,7 +2547,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.54680408336502</v>
+        <v>50</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2593,11 +2555,62 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.2</v>
+        <v>20</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lifespan in rodents</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>extrapolated cellular turnover rate</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cells per day</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>extrapolated cellular mass turnover rate</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>grams per day</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -2609,11 +2622,11 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="FF9C0000"/>
+    <tabColor rgb="00d95d29"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2622,24 +2635,29 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="27" t="inlineStr">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B1" s="27" t="inlineStr">
+      <c r="B1" s="33" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="27" t="inlineStr">
+      <c r="C1" s="33" t="inlineStr">
         <is>
           <t>Units</t>
         </is>
       </c>
-      <c r="D1" s="27" t="inlineStr">
+      <c r="D1" s="33" t="inlineStr">
         <is>
           <t>Uncertainty</t>
+        </is>
+      </c>
+      <c r="E1" s="33" t="inlineStr">
+        <is>
+          <t>Comments</t>
         </is>
       </c>
     </row>
@@ -2650,15 +2668,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>25496277991800</v>
+        <v>120000000000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cells</t>
+          <t>cells</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1277546482577.677</v>
+        <v>30000000000</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -2668,7 +2691,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>119.3166666666667</v>
+        <v>31</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2676,17 +2699,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.260075195110963</v>
+        <v>4</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cellular turnovr rate</t>
+          <t>cellular turnover rate</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213781992016.3277</v>
+        <v>3700000000</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2694,7 +2722,12 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12383167278.76841</v>
+        <v>900000000</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -2704,7 +2737,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>93.5</v>
+        <v>830</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2712,17 +2745,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4.949747468305833</v>
+        <v>30</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cellular mass turnovr rate</t>
+          <t>cellular mass turnover rate</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.98861625352664</v>
+        <v>3.1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2730,7 +2768,86 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.568527495609108</v>
+        <v>0.8</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>total cellular mass</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>grams</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lifespan in rodents</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>extrapolated cellular turnover rate</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cells per day</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>extrapolated cellular mass turnover rate</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>grams per day</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2741,11 +2858,11 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="00cda046"/>
+    <tabColor rgb="00e7916c"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2754,24 +2871,29 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="39" t="inlineStr">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B1" s="39" t="inlineStr">
+      <c r="B1" s="33" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="39" t="inlineStr">
+      <c r="C1" s="33" t="inlineStr">
         <is>
           <t>Units</t>
         </is>
       </c>
-      <c r="D1" s="39" t="inlineStr">
+      <c r="D1" s="33" t="inlineStr">
         <is>
           <t>Uncertainty</t>
+        </is>
+      </c>
+      <c r="E1" s="33" t="inlineStr">
+        <is>
+          <t>Comments</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2904,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>600000000000</v>
+        <v>38000000000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -2790,7 +2912,12 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>200000000000</v>
+        <v>16000000000</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -2799,16 +2926,15 @@
           <t>lifespan</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>2300</v>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>days</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>1200</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -2817,16 +2943,15 @@
           <t>cellular turnover rate</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>240000000</v>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>cells per day</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>170000000</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -2836,7 +2961,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1200</v>
+        <v>2300</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2844,7 +2969,12 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>500</v>
+        <v>200</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -2853,16 +2983,15 @@
           <t>cellular mass turnover rate</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>0.3</v>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>grams per day</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>0.2</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2872,7 +3001,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>700</v>
+        <v>90</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -2880,7 +3009,81 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>300</v>
+        <v>40</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lifespan in rodents</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>140</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>extrapolated cellular turnover rate</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>270000000</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cells per day</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>120000000</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>extrapolated cellular mass turnover rate</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>grams per day</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2891,11 +3094,11 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="FF3A8E8D"/>
+    <tabColor rgb="00cda046"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2904,24 +3107,29 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="27" t="inlineStr">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B1" s="27" t="inlineStr">
+      <c r="B1" s="33" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="27" t="inlineStr">
+      <c r="C1" s="33" t="inlineStr">
         <is>
           <t>Units</t>
         </is>
       </c>
-      <c r="D1" s="27" t="inlineStr">
+      <c r="D1" s="33" t="inlineStr">
         <is>
           <t>Uncertainty</t>
+        </is>
+      </c>
+      <c r="E1" s="33" t="inlineStr">
+        <is>
+          <t>Comments</t>
         </is>
       </c>
     </row>
@@ -2932,15 +3140,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33790356394.12997</v>
+        <v>600000000000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cells</t>
+          <t>cells</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5432720318.395976</v>
+        <v>200000000000</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -2950,7 +3163,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4451.219512195122</v>
+        <v>2300</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2958,17 +3171,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2877.007733491969</v>
+        <v>1200</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cellular turnovr rate</t>
+          <t>cellular turnover rate</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7591258.148818241</v>
+        <v>240000000</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2976,7 +3194,12 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>5056066.346689004</v>
+        <v>170000000</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -2986,7 +3209,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>393603.4247425239</v>
+        <v>1200</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -2994,17 +3217,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>66468.89282069913</v>
+        <v>500</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cellular mass turnovr rate</t>
+          <t>cellular mass turnover rate</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.987945205479451</v>
+        <v>0.3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3012,7 +3240,12 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.956676672108687</v>
+        <v>0.2</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -3022,15 +3255,71 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13300</v>
+        <v>700</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>grams</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>300</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lifespan in rodents</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>extrapolated cellular turnover rate</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cells per day</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>extrapolated cellular mass turnover rate</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>grams per day</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>1400</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3041,11 +3330,11 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="FFC7B58B"/>
+    <tabColor rgb="0086ab5f"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3054,24 +3343,29 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="38" t="inlineStr">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B1" s="38" t="inlineStr">
+      <c r="B1" s="33" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="38" t="inlineStr">
+      <c r="C1" s="33" t="inlineStr">
         <is>
           <t>Units</t>
         </is>
       </c>
-      <c r="D1" s="38" t="inlineStr">
+      <c r="D1" s="33" t="inlineStr">
         <is>
           <t>Uncertainty</t>
+        </is>
+      </c>
+      <c r="E1" s="33" t="inlineStr">
+        <is>
+          <t>Comments</t>
         </is>
       </c>
     </row>
@@ -3082,15 +3376,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>240590510.6410558</v>
+        <v>109000000000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cells</t>
+          <t>cells</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>286894517.7715125</v>
+        <v>1.17</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -3099,34 +3398,32 @@
           <t>lifespan</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>18340.24138235819</v>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>days</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>6627.068782050749</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cellular turnovr rate</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>13118.17579851943</v>
+          <t>cellular turnover rate</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>cells per day</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>16345.30632048152</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -3136,7 +3433,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>77063734.83254686</v>
+        <v>2200</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3144,25 +3441,29 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>92409164.81158799</v>
+        <v>1.16</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cellular mass turnovr rate</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9259284799355243</v>
+          <t>cellular mass turnover rate</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>grams per day</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>0.3565965105584405</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -3172,15 +3473,89 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18540.80331526936</v>
+        <v>240</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>grams</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lifespan in rodents</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>32</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>extrapolated cellular turnover rate</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3500000000</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cells per day</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>extrapolated cellular mass turnover rate</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>grams per day</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>2341.129891916743</v>
+      <c r="D10" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3191,11 +3566,11 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="FF646E64"/>
+    <tabColor rgb="002a5b30"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3204,24 +3579,29 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="27" t="inlineStr">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B1" s="27" t="inlineStr">
+      <c r="B1" s="33" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="27" t="inlineStr">
+      <c r="C1" s="33" t="inlineStr">
         <is>
           <t>Units</t>
         </is>
       </c>
-      <c r="D1" s="27" t="inlineStr">
+      <c r="D1" s="33" t="inlineStr">
         <is>
           <t>Uncertainty</t>
+        </is>
+      </c>
+      <c r="E1" s="33" t="inlineStr">
+        <is>
+          <t>Comments</t>
         </is>
       </c>
     </row>
@@ -3232,15 +3612,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76654999999.99998</v>
+        <v>29000000000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cells</t>
+          <t>cells</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10965265093.4414</v>
+        <v>1.29</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -3250,7 +3635,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>292000</v>
+        <v>165</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3258,17 +3643,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>182500</v>
+        <v>1.7</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cellular turnovr rate</t>
+          <t>cellular turnover rate</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276549.9839817344</v>
+        <v>180000000</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3276,7 +3666,12 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>179130.6256548668</v>
+        <v>1.8</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -3286,7 +3681,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6878.275230485437</v>
+        <v>2100</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3294,17 +3689,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1937.122977908347</v>
+        <v>1.08</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cellular mass turnovr rate</t>
+          <t>cellular mass turnover rate</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001902186904812708</v>
+        <v>0.37</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3312,7 +3712,86 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.001313438868658188</v>
+        <v>1.8</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>total cellular mass</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>60</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>grams</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lifespan in rodents</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>extrapolated cellular turnover rate</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cells per day</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>extrapolated cellular mass turnover rate</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>grams per day</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3323,11 +3802,11 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="FF788278"/>
+    <tabColor rgb="0066a150"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3336,24 +3815,29 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="27" t="inlineStr">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B1" s="27" t="inlineStr">
+      <c r="B1" s="33" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="27" t="inlineStr">
+      <c r="C1" s="33" t="inlineStr">
         <is>
           <t>Units</t>
         </is>
       </c>
-      <c r="D1" s="27" t="inlineStr">
+      <c r="D1" s="33" t="inlineStr">
         <is>
           <t>Uncertainty</t>
+        </is>
+      </c>
+      <c r="E1" s="33" t="inlineStr">
+        <is>
+          <t>Comments</t>
         </is>
       </c>
     </row>
@@ -3364,15 +3848,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76654999999.99998</v>
+        <v>10400000000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cells</t>
+          <t>cells</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10965265093.4414</v>
+        <v>1.11</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -3382,7 +3871,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>292000</v>
+        <v>139</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3390,17 +3879,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>182500</v>
+        <v>1.28</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cellular turnovr rate</t>
+          <t>cellular turnover rate</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>276549.9839817344</v>
+        <v>75000000</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3408,7 +3902,12 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>179130.6256548668</v>
+        <v>1.31</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -3418,7 +3917,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6878.275230485437</v>
+        <v>890</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3426,17 +3925,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1937.122977908347</v>
+        <v>1.13</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cellular mass turnovr rate</t>
+          <t>cellular mass turnover rate</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001902186904812708</v>
+        <v>0.067</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3444,7 +3948,86 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.001313438868658188</v>
+        <v>1.35</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>total cellular mass</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>grams</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lifespan in rodents</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>extrapolated cellular turnover rate</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cells per day</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>extrapolated cellular mass turnover rate</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>grams per day</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3455,11 +4038,11 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="FFE69696"/>
+    <tabColor rgb="00527b2d"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3468,27 +4051,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="32" t="inlineStr">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B1" s="32" t="inlineStr">
+      <c r="B1" s="33" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="32" t="inlineStr">
+      <c r="C1" s="33" t="inlineStr">
         <is>
           <t>Units</t>
         </is>
       </c>
-      <c r="D1" s="32" t="inlineStr">
+      <c r="D1" s="33" t="inlineStr">
         <is>
           <t>Uncertainty</t>
         </is>
       </c>
-      <c r="E1" s="32" t="inlineStr">
+      <c r="E1" s="33" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
@@ -3501,7 +4084,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5244260790.430355</v>
+        <v>136000000000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -3509,7 +4092,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.466576277126255</v>
+        <v>1.12</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -3523,16 +4106,10 @@
           <t>lifespan</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>3.451409116890697</v>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>days</t>
         </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1.179478471579225</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -3546,16 +4123,10 @@
           <t>cellular turnover rate</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>1519454985.723279</v>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>cells per day</t>
         </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1.516795300697661</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -3570,7 +4141,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>458.70925</v>
+        <v>740</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3578,7 +4149,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.096790361876368</v>
+        <v>1.11</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -3589,19 +4160,13 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cellular mass turnovr rate</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.6969880569098859</v>
+          <t>cellular mass turnover rate</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>grams per day</t>
         </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1.532225286198521</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -3616,7 +4181,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.405590933982715</v>
+        <v>101</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3624,9 +4189,78 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.482779000650065</v>
+        <v>1.17</v>
       </c>
       <c r="E7" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lifespan in rodents</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>44</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>extrapolated cellular turnover rate</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3100000000</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cells per day</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>extrapolated cellular mass turnover rate</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>grams per day</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>uncertainty by multiplication factor</t>
         </is>
@@ -3640,40 +4274,40 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="FFBC8044"/>
+    <tabColor rgb="009c0000"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="26" t="inlineStr">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B1" s="26" t="inlineStr">
+      <c r="B1" s="33" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="26" t="inlineStr">
+      <c r="C1" s="33" t="inlineStr">
         <is>
           <t>Units</t>
         </is>
       </c>
-      <c r="D1" s="26" t="inlineStr">
+      <c r="D1" s="33" t="inlineStr">
         <is>
           <t>Uncertainty</t>
         </is>
       </c>
-      <c r="E1" s="26" t="inlineStr">
+      <c r="E1" s="33" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
@@ -3686,19 +4320,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17364834701.31502</v>
+        <v>25500000000000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cells</t>
+          <t>cells</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3597896297.112047</v>
+        <v>500000000000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>linear uncertainty</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -3709,7 +4343,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.461880341880342</v>
+        <v>119</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3717,22 +4351,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.2666287860290419</v>
+        <v>3</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>linear uncertainty</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cellular turnovr rate</t>
+          <t>cellular turnover rate</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5016012393.970613</v>
+        <v>214000000000</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3740,11 +4374,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1108769788.812917</v>
+        <v>7000000000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>linear uncertainty</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -3755,7 +4389,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>813.9437961419342</v>
+        <v>94</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3763,22 +4397,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>87.6136766462453</v>
+        <v>3</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>linear uncertainty</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cellular mass turnovr rate</t>
+          <t>cellular mass turnover rate</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.082752169443432</v>
+        <v>20</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3786,11 +4420,11 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.7882438980488152</v>
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>linear uncertainty</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -3801,7 +4435,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14.13399947616553</v>
+        <v>2380</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3809,11 +4443,62 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.5022745040661</v>
+        <v>100</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>linear uncertainty</t>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lifespan in rodents</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>extrapolated cellular turnover rate</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cells per day</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>extrapolated cellular mass turnover rate</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>grams per day</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -3825,14 +4510,14 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="FFCEA36D"/>
+    <tabColor rgb="003a8e8d"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -3871,7 +4556,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3200000000</v>
+        <v>34000000000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -3879,11 +4564,11 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>139271503.6327889</v>
+        <v>5000000000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>linear uncertainty</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -3894,7 +4579,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55747.79305155358</v>
+        <v>4000</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -3902,11 +4587,11 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11173.70469866237</v>
+        <v>3000</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>linear uncertainty</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -3917,7 +4602,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>57401.37545966625</v>
+        <v>8000000</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -3925,11 +4610,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11773.24942103405</v>
+        <v>5000000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>linear uncertainty</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -3940,7 +4625,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>34542.58734655332</v>
+        <v>390000</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -3948,22 +4633,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3424.625496848158</v>
+        <v>70000</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>linear uncertainty</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cellular mass turnovr rate</t>
+          <t>cellular mass turnover rate</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.001982792025627823</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -3971,11 +4656,11 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.0004516972367630329</v>
+        <v>2</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>linear uncertainty</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -3986,7 +4671,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.5362795089706</v>
+        <v>13300</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -3994,11 +4679,62 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>11.96825427726126</v>
+        <v>1400</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>linear uncertainty</t>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lifespan in rodents</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>extrapolated cellular turnover rate</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cells per day</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>extrapolated cellular mass turnover rate</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>grams per day</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -4010,40 +4746,40 @@
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="FF86AB5F"/>
+    <tabColor rgb="00c7b58b"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="37" t="inlineStr">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B1" s="37" t="inlineStr">
+      <c r="B1" s="33" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="37" t="inlineStr">
+      <c r="C1" s="33" t="inlineStr">
         <is>
           <t>Units</t>
         </is>
       </c>
-      <c r="D1" s="37" t="inlineStr">
+      <c r="D1" s="33" t="inlineStr">
         <is>
           <t>Uncertainty</t>
         </is>
       </c>
-      <c r="E1" s="37" t="inlineStr">
+      <c r="E1" s="33" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
@@ -4056,7 +4792,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>109000000000</v>
+        <v>200000000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -4064,11 +4800,11 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.17</v>
+        <v>300000000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>mouse based, uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -4079,7 +4815,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131.5686934342384</v>
+        <v>18000</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -4087,22 +4823,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.32</v>
+        <v>7000</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>mouse based, uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cellular turnovr rate</t>
+          <t>cellular turnover rate</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>828464562.1603072</v>
+        <v>13000</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -4110,11 +4846,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.38</v>
+        <v>16000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>mouse based, uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4861,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2178.75</v>
+        <v>80000000</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -4133,22 +4869,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.16</v>
+        <v>90000000</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>mouse based, uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cellular mass turnovr rate</t>
+          <t>cellular mass turnover rate</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.805017164806769</v>
+        <v>0.9</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -4156,11 +4892,11 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.43</v>
+        <v>0.4</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>mouse based, uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -4171,7 +4907,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>237.48375</v>
+        <v>19000</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -4179,11 +4915,62 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.25</v>
+        <v>2000</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>mouse based, uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lifespan in rodents</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>extrapolated cellular turnover rate</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cells per day</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>extrapolated cellular mass turnover rate</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>grams per day</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -4195,40 +4982,40 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="FF2A5B30"/>
+    <tabColor rgb="00cea36d"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="37" t="inlineStr">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B1" s="37" t="inlineStr">
+      <c r="B1" s="33" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="37" t="inlineStr">
+      <c r="C1" s="33" t="inlineStr">
         <is>
           <t>Units</t>
         </is>
       </c>
-      <c r="D1" s="37" t="inlineStr">
+      <c r="D1" s="33" t="inlineStr">
         <is>
           <t>Uncertainty</t>
         </is>
       </c>
-      <c r="E1" s="37" t="inlineStr">
+      <c r="E1" s="33" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
@@ -4241,7 +5028,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>29000000000</v>
+        <v>3200000000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -4249,11 +5036,11 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.29</v>
+        <v>140000000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -4264,7 +5051,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>164.5091479959365</v>
+        <v>56000</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -4272,22 +5059,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.72</v>
+        <v>11000</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cellular turnovr rate</t>
+          <t>cellular turnover rate</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176281990.1098529</v>
+        <v>57000</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -4295,11 +5082,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.82</v>
+        <v>12000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -4310,7 +5097,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2084.25</v>
+        <v>35000</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -4318,22 +5105,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.08</v>
+        <v>3000</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cellular mass turnovr rate</t>
+          <t>cellular mass turnover rate</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3674157378864608</v>
+        <v>0.002</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -4341,11 +5128,11 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.83</v>
+        <v>0.0005</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -4356,7 +5143,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.44325</v>
+        <v>111</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -4364,11 +5151,62 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.31</v>
+        <v>12</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lifespan in rodents</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>extrapolated cellular turnover rate</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cells per day</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>extrapolated cellular mass turnover rate</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>grams per day</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -4380,40 +5218,40 @@
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="FF66A150"/>
+    <tabColor rgb="00646e64"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="37" t="inlineStr">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B1" s="37" t="inlineStr">
+      <c r="B1" s="33" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="37" t="inlineStr">
+      <c r="C1" s="33" t="inlineStr">
         <is>
           <t>Units</t>
         </is>
       </c>
-      <c r="D1" s="37" t="inlineStr">
+      <c r="D1" s="33" t="inlineStr">
         <is>
           <t>Uncertainty</t>
         </is>
       </c>
-      <c r="E1" s="37" t="inlineStr">
+      <c r="E1" s="33" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
@@ -4426,7 +5264,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10428290000</v>
+        <v>77000000000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -4434,11 +5272,11 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.11</v>
+        <v>11000000000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -4449,7 +5287,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.6823445007129</v>
+        <v>300000</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -4457,22 +5295,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.28</v>
+        <v>200000</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cellular turnovr rate</t>
+          <t>cellular turnover rate</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>75195512.72041258</v>
+        <v>300000</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -4480,11 +5318,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.31</v>
+        <v>200000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -4495,7 +5333,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>893.0893304386901</v>
+        <v>7000</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -4503,22 +5341,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.13</v>
+        <v>2000</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cellular mass turnovr rate</t>
+          <t>cellular mass turnover rate</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0671563101074673</v>
+        <v>0.0019</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -4526,11 +5364,11 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.35</v>
+        <v>0.0013</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -4541,7 +5379,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.313394533720489</v>
+        <v>530</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -4549,11 +5387,62 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.18</v>
+        <v>150</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lifespan in rodents</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>extrapolated cellular turnover rate</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cells per day</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>extrapolated cellular mass turnover rate</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>grams per day</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -4565,40 +5454,40 @@
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="FF527B2D"/>
+    <tabColor rgb="00788278"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="37" t="inlineStr">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B1" s="37" t="inlineStr">
+      <c r="B1" s="33" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="37" t="inlineStr">
+      <c r="C1" s="33" t="inlineStr">
         <is>
           <t>Units</t>
         </is>
       </c>
-      <c r="D1" s="37" t="inlineStr">
+      <c r="D1" s="33" t="inlineStr">
         <is>
           <t>Uncertainty</t>
         </is>
       </c>
-      <c r="E1" s="37" t="inlineStr">
+      <c r="E1" s="33" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
@@ -4611,7 +5500,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>136500000000</v>
+        <v>64000000000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -4619,11 +5508,11 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.12</v>
+        <v>6000000000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>mouse based, uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -4634,7 +5523,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>201.3152773218261</v>
+        <v>21000</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -4642,22 +5531,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.29</v>
+        <v>11000</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>mouse based, uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cellular turnovr rate</t>
+          <t>cellular turnover rate</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>678040940.6375489</v>
+        <v>3100000</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -4665,11 +5554,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.32</v>
+        <v>1600000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>mouse based, uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -4680,7 +5569,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>740.25</v>
+        <v>7000</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -4688,22 +5577,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.11</v>
+        <v>2000</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>mouse based, uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cellular mass turnovr rate</t>
+          <t>cellular mass turnover rate</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5019198063069455</v>
+        <v>0.021</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -4711,11 +5600,11 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.35</v>
+        <v>0.012</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>mouse based, uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -4726,7 +5615,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101.044125</v>
+        <v>440</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -4734,11 +5623,62 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.17</v>
+        <v>120</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>mouse based, uncertainty by multiplication factor</t>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lifespan in rodents</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>extrapolated cellular turnover rate</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cells per day</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>extrapolated cellular mass turnover rate</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>grams per day</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -4750,40 +5690,40 @@
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="FF19568A"/>
+    <tabColor rgb="0019568a"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="38" t="inlineStr">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B1" s="38" t="inlineStr">
+      <c r="B1" s="33" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="38" t="inlineStr">
+      <c r="C1" s="33" t="inlineStr">
         <is>
           <t>Units</t>
         </is>
       </c>
-      <c r="D1" s="38" t="inlineStr">
+      <c r="D1" s="33" t="inlineStr">
         <is>
           <t>Uncertainty</t>
         </is>
       </c>
-      <c r="E1" s="38" t="inlineStr">
+      <c r="E1" s="33" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
@@ -4818,11 +5758,13 @@
           <t>lifespan</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>days</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>uncertainty by multiplication factor</t>
@@ -4832,14 +5774,16 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cellular turnovr rate</t>
-        </is>
-      </c>
+          <t>cellular turnover rate</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>cells per day</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>uncertainty by multiplication factor</t>
@@ -4853,7 +5797,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4255.95</v>
+        <v>4300</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -4872,14 +5816,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cellular mass turnovr rate</t>
-        </is>
-      </c>
+          <t>cellular mass turnover rate</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>grams per day</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>uncertainty by multiplication factor</t>
@@ -4939,7 +5885,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>638888888.8888888</v>
+        <v>640000000</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -4962,7 +5908,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -4998,27 +5944,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="38" t="inlineStr">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B1" s="38" t="inlineStr">
+      <c r="B1" s="33" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="38" t="inlineStr">
+      <c r="C1" s="33" t="inlineStr">
         <is>
           <t>Units</t>
         </is>
       </c>
-      <c r="D1" s="38" t="inlineStr">
+      <c r="D1" s="33" t="inlineStr">
         <is>
           <t>Uncertainty</t>
         </is>
       </c>
-      <c r="E1" s="38" t="inlineStr">
+      <c r="E1" s="33" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
@@ -5053,11 +5999,13 @@
           <t>lifespan</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>days</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>uncertainty by multiplication factor</t>
@@ -5067,14 +6015,16 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cellular turnovr rate</t>
-        </is>
-      </c>
+          <t>cellular turnover rate</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>cells per day</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>uncertainty by multiplication factor</t>
@@ -5088,7 +6038,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>466.37</v>
+        <v>470</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -5096,7 +6046,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -5107,14 +6057,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cellular mass turnovr rate</t>
-        </is>
-      </c>
+          <t>cellular mass turnover rate</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>grams per day</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>uncertainty by multiplication factor</t>
@@ -5128,7 +6080,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.59199</v>
+        <v>12.6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -5136,7 +6088,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.215174481503971</v>
+        <v>2.2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -5159,7 +6111,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -5174,7 +6126,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>67500000</v>
+        <v>68000000</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -5205,7 +6157,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -5233,27 +6185,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="38" t="inlineStr">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B1" s="38" t="inlineStr">
+      <c r="B1" s="33" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="38" t="inlineStr">
+      <c r="C1" s="33" t="inlineStr">
         <is>
           <t>Units</t>
         </is>
       </c>
-      <c r="D1" s="38" t="inlineStr">
+      <c r="D1" s="33" t="inlineStr">
         <is>
           <t>Uncertainty</t>
         </is>
       </c>
-      <c r="E1" s="38" t="inlineStr">
+      <c r="E1" s="33" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
@@ -5266,7 +6218,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14000000000</v>
+        <v>14500000000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -5288,11 +6240,13 @@
           <t>lifespan</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>days</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>uncertainty by multiplication factor</t>
@@ -5302,14 +6256,16 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cellular turnovr rate</t>
-        </is>
-      </c>
+          <t>cellular turnover rate</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>cells per day</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>uncertainty by multiplication factor</t>
@@ -5323,7 +6279,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>528.8099999999999</v>
+        <v>520</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -5331,7 +6287,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -5342,14 +6298,16 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cellular mass turnovr rate</t>
-        </is>
-      </c>
+          <t>cellular mass turnover rate</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>grams per day</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>uncertainty by multiplication factor</t>
@@ -5363,7 +6321,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.403339999999999</v>
+        <v>7.5</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -5371,7 +6329,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.350986387460842</v>
+        <v>2.3</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -5394,7 +6352,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -5409,7 +6367,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>466666666.6666667</v>
+        <v>480000000</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -5456,40 +6414,40 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="FF8A5E31"/>
+    <tabColor rgb="00b74646"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="26" t="inlineStr">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B1" s="26" t="inlineStr">
+      <c r="B1" s="33" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="26" t="inlineStr">
+      <c r="C1" s="33" t="inlineStr">
         <is>
           <t>Units</t>
         </is>
       </c>
-      <c r="D1" s="26" t="inlineStr">
+      <c r="D1" s="33" t="inlineStr">
         <is>
           <t>Uncertainty</t>
         </is>
       </c>
-      <c r="E1" s="26" t="inlineStr">
+      <c r="E1" s="33" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
@@ -5502,19 +6460,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>118349176273.0168</v>
+        <v>640000000000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cells</t>
+          <t>cells</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>18965057576.67126</v>
+        <v>60000000000</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>linear uncertainty</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -5525,7 +6483,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.842967741935484</v>
+        <v>6.6</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -5533,22 +6491,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.6838289617986815</v>
+        <v>0.2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>linear uncertainty</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cellular turnovr rate</t>
+          <t>cellular turnover rate</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41628743980.20607</v>
+        <v>60000000000</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -5556,11 +6514,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12031740209.9964</v>
+        <v>11000000000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>linear uncertainty</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -5571,7 +6529,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>840</v>
+        <v>300</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -5579,22 +6537,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>157.5</v>
+        <v>30</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>linear uncertainty</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cellular mass turnovr rate</t>
+          <t>cellular mass turnover rate</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34.9681449433731</v>
+        <v>18</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -5602,11 +6560,11 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12.04710176281756</v>
+        <v>4</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>linear uncertainty</t>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -5617,7 +6575,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.41330806933414</v>
+        <v>190</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -5625,11 +6583,62 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>24.52009340754948</v>
+        <v>30</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>linear uncertainty</t>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lifespan in rodents</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>extrapolated cellular turnover rate</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cells per day</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>extrapolated cellular mass turnover rate</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>grams per day</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>additive uncertainty</t>
         </is>
       </c>
     </row>
@@ -5641,40 +6650,40 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="FF5D3F21"/>
+    <tabColor rgb="008c284d"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="26" t="inlineStr">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B1" s="26" t="inlineStr">
+      <c r="B1" s="33" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="26" t="inlineStr">
+      <c r="C1" s="33" t="inlineStr">
         <is>
           <t>Units</t>
         </is>
       </c>
-      <c r="D1" s="26" t="inlineStr">
+      <c r="D1" s="33" t="inlineStr">
         <is>
           <t>Uncertainty</t>
         </is>
       </c>
-      <c r="E1" s="26" t="inlineStr">
+      <c r="E1" s="33" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
@@ -5687,19 +6696,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>56213899651.44975</v>
+        <v>2300000000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cells</t>
+          <t>cells</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>20207046542.39969</v>
+        <v>5</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>linear uncertainty</t>
+          <t>uncertainty by multiplication factor</t>
         </is>
       </c>
     </row>
@@ -5709,43 +6718,31 @@
           <t>lifespan</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>2.792142857142857</v>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>days</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>0.4575279388942327</v>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>linear uncertainty</t>
+          <t>uncertainty by multiplication factor</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cellular turnovr rate</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>20132888081.86995</v>
+          <t>cellular turnover rate</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>cells per day</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>7953575174.375694</v>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>linear uncertainty</t>
+          <t>uncertainty by multiplication factor</t>
         </is>
       </c>
     </row>
@@ -5756,7 +6753,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>840</v>
+        <v>190</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -5764,34 +6761,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>157.5</v>
+        <v>1.1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>linear uncertainty</t>
+          <t>uncertainty by multiplication factor</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cellular mass turnovr rate</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>16.91162598877076</v>
+          <t>cellular mass turnover rate</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>grams per day</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>7.395309276969523</v>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>linear uncertainty</t>
+          <t>uncertainty by multiplication factor</t>
         </is>
       </c>
     </row>
@@ -5802,7 +6793,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.21967570721779</v>
+        <v>0.43</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -5810,11 +6801,80 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>19.14423521136319</v>
+        <v>5</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>linear uncertainty</t>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lifespan in rodents</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>extrapolated cellular turnover rate</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>610000000</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cells per day</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>extrapolated cellular mass turnover rate</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>grams per day</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
         </is>
       </c>
     </row>
@@ -5826,11 +6886,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="FFD95D29"/>
+    <tabColor rgb="00a63c51"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5839,27 +6899,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="32" t="inlineStr">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B1" s="32" t="inlineStr">
+      <c r="B1" s="33" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="32" t="inlineStr">
+      <c r="C1" s="33" t="inlineStr">
         <is>
           <t>Units</t>
         </is>
       </c>
-      <c r="D1" s="32" t="inlineStr">
+      <c r="D1" s="33" t="inlineStr">
         <is>
           <t>Uncertainty</t>
         </is>
       </c>
-      <c r="E1" s="32" t="inlineStr">
+      <c r="E1" s="33" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
@@ -5872,19 +6932,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116850000000</v>
+        <v>710000000000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cells</t>
+          <t>cells</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>25878461181.5502</v>
+        <v>2.2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>linear uncertainty</t>
+          <t>uncertainty by multiplication factor</t>
         </is>
       </c>
     </row>
@@ -5895,7 +6955,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.31944444444445</v>
+        <v>320</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -5903,22 +6963,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3.768191472750375</v>
+        <v>1.35</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>linear uncertainty</t>
+          <t>uncertainty by multiplication factor</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cellular turnovr rate</t>
+          <t>cellular turnover rate</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3730909090.909091</v>
+        <v>2200000000</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -5926,11 +6986,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>940332941.1353997</v>
+        <v>2.3</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>linear uncertainty</t>
+          <t>uncertainty by multiplication factor</t>
         </is>
       </c>
     </row>
@@ -5941,7 +7001,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>829.5</v>
+        <v>190</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -5949,22 +7009,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>31.5</v>
+        <v>1.1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>linear uncertainty</t>
+          <t>uncertainty by multiplication factor</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cellular mass turnovr rate</t>
+          <t>cellular mass turnover rate</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.094789090909091</v>
+        <v>0.41</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -5972,11 +7032,11 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.7888101404205508</v>
+        <v>2.3</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>linear uncertainty</t>
+          <t>uncertainty by multiplication factor</t>
         </is>
       </c>
     </row>
@@ -5987,7 +7047,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>96.92707500000002</v>
+        <v>132</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -5995,11 +7055,62 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>21.77946603585662</v>
+        <v>2.2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>linear uncertainty</t>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lifespan in rodents</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>extrapolated cellular turnover rate</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cells per day</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>extrapolated cellular mass turnover rate</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>grams per day</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
         </is>
       </c>
     </row>
@@ -6011,40 +7122,40 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="FFE7916C"/>
+    <tabColor rgb="00c25174"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="32" t="inlineStr">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B1" s="32" t="inlineStr">
+      <c r="B1" s="33" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="32" t="inlineStr">
+      <c r="C1" s="33" t="inlineStr">
         <is>
           <t>Units</t>
         </is>
       </c>
-      <c r="D1" s="32" t="inlineStr">
+      <c r="D1" s="33" t="inlineStr">
         <is>
           <t>Uncertainty</t>
         </is>
       </c>
-      <c r="E1" s="32" t="inlineStr">
+      <c r="E1" s="33" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
@@ -6057,15 +7168,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38241634000</v>
+        <v>5500000000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cells</t>
+          <t>cells</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1.577165141020381</v>
+        <v>1.43</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6079,16 +7190,10 @@
           <t>lifespan</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>878.2898634372514</v>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>days</t>
         </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1.337452970086717</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6099,19 +7204,13 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cellular turnovr rate</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>43541017.14249391</v>
+          <t>cellular turnover rate</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>cells per day</t>
         </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1.716869883443173</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6126,7 +7225,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2270</v>
+        <v>190</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -6134,7 +7233,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.085040824651486</v>
+        <v>1.1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -6145,19 +7244,13 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cellular mass turnovr rate</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.09862194056953022</v>
+          <t>cellular mass turnover rate</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>grams per day</t>
         </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1.727422342728532</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6172,7 +7265,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86.61865071472941</v>
+        <v>1.03</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -6180,9 +7273,78 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.588645002007206</v>
+        <v>1.45</v>
       </c>
       <c r="E7" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lifespan in rodents</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>extrapolated cellular turnover rate</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>6600000000</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cells per day</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>extrapolated cellular mass turnover rate</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>grams per day</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>uncertainty by multiplication factor</t>
         </is>
@@ -6196,11 +7358,11 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="00b74646"/>
+    <tabColor rgb="00d890a7"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6209,24 +7371,29 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="39" t="inlineStr">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B1" s="39" t="inlineStr">
+      <c r="B1" s="33" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="39" t="inlineStr">
+      <c r="C1" s="33" t="inlineStr">
         <is>
           <t>Units</t>
         </is>
       </c>
-      <c r="D1" s="39" t="inlineStr">
+      <c r="D1" s="33" t="inlineStr">
         <is>
           <t>Uncertainty</t>
+        </is>
+      </c>
+      <c r="E1" s="33" t="inlineStr">
+        <is>
+          <t>Comments</t>
         </is>
       </c>
     </row>
@@ -6237,7 +7404,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>640000000000</v>
+        <v>2800000000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -6245,7 +7412,12 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>60000000000</v>
+        <v>2.4</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -6254,16 +7426,15 @@
           <t>lifespan</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>6.62</v>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>days</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>0.18</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -6272,16 +7443,15 @@
           <t>cellular turnover rate</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>60000000000</v>
-      </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>cells per day</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>11000000000</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -6291,7 +7461,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -6299,7 +7469,12 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>30</v>
+        <v>1.1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -6308,16 +7483,15 @@
           <t>cellular mass turnover rate</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>18</v>
-      </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>grams per day</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>4</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -6327,7 +7501,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190</v>
+        <v>0.53</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -6335,7 +7509,81 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>30</v>
+        <v>2.4</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lifespan in rodents</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>extrapolated cellular turnover rate</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>290000000</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cells per day</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>extrapolated cellular mass turnover rate</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>grams per day</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -6346,11 +7594,11 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="FF8C284D"/>
+    <tabColor rgb="00d37591"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6359,27 +7607,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="32" t="inlineStr">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B1" s="32" t="inlineStr">
+      <c r="B1" s="33" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="32" t="inlineStr">
+      <c r="C1" s="33" t="inlineStr">
         <is>
           <t>Units</t>
         </is>
       </c>
-      <c r="D1" s="32" t="inlineStr">
+      <c r="D1" s="33" t="inlineStr">
         <is>
           <t>Uncertainty</t>
         </is>
       </c>
-      <c r="E1" s="32" t="inlineStr">
+      <c r="E1" s="33" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
@@ -6392,15 +7640,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2294516247.729446</v>
+        <v>320000000000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cells</t>
+          <t>cells</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6415,7 +7663,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.872583719022337</v>
+        <v>63</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -6423,7 +7671,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2.4</v>
+        <v>1.21</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6434,11 +7682,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cellular turnovr rate</t>
+          <t>cellular turnover rate</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>258607449.6891055</v>
+        <v>5100000000</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -6446,7 +7694,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6.2</v>
+        <v>2.3</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6461,7 +7709,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>185.7421814366369</v>
+        <v>190</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -6480,11 +7728,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cellular mass turnovr rate</t>
+          <t>cellular mass turnover rate</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04803431184101978</v>
+        <v>0.95</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -6492,7 +7740,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6.2</v>
+        <v>2.3</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6507,7 +7755,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.426188453195074</v>
+        <v>59</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -6515,9 +7763,60 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="E7" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lifespan in rodents</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>extrapolated cellular turnover rate</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cells per day</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>extrapolated cellular mass turnover rate</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>grams per day</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>uncertainty by multiplication factor</t>
         </is>
@@ -6531,11 +7830,11 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor rgb="FFA63C51"/>
+    <tabColor rgb="00e69696"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6544,27 +7843,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="32" t="inlineStr">
+      <c r="A1" s="33" t="inlineStr">
         <is>
           <t>Parameter</t>
         </is>
       </c>
-      <c r="B1" s="32" t="inlineStr">
+      <c r="B1" s="33" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
       </c>
-      <c r="C1" s="32" t="inlineStr">
+      <c r="C1" s="33" t="inlineStr">
         <is>
           <t>Units</t>
         </is>
       </c>
-      <c r="D1" s="32" t="inlineStr">
+      <c r="D1" s="33" t="inlineStr">
         <is>
           <t>Uncertainty</t>
         </is>
       </c>
-      <c r="E1" s="32" t="inlineStr">
+      <c r="E1" s="33" t="inlineStr">
         <is>
           <t>Comments</t>
         </is>
@@ -6577,15 +7876,15 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>712039324756.7167</v>
+        <v>5200000000</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cells</t>
+          <t>cells</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.2</v>
+        <v>1.47</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -6600,7 +7899,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>323.0466791325193</v>
+        <v>3.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -6608,7 +7907,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6619,11 +7918,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>cellular turnovr rate</t>
+          <t>cellular turnover rate</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2204137577.481878</v>
+        <v>1520000000</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -6631,7 +7930,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2.3</v>
+        <v>1.52</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6646,7 +7945,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>185.7421814366369</v>
+        <v>460</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -6665,11 +7964,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>cellular mass turnovr rate</t>
+          <t>cellular mass turnover rate</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4094013218279483</v>
+        <v>0.7</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -6677,7 +7976,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2.3</v>
+        <v>1.54</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -6692,7 +7991,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>132.2557374489825</v>
+        <v>2.4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -6700,9 +7999,60 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2.2</v>
+        <v>1.49</v>
       </c>
       <c r="E7" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>lifespan in rodents</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>days</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>extrapolated cellular turnover rate</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>cells per day</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>uncertainty by multiplication factor</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>extrapolated cellular mass turnover rate</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>grams per day</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>uncertainty by multiplication factor</t>
         </is>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -1,44 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12300" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Colors" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Erythrocytes" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Neutrophils" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thymocytes" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mature T cells" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="B cells progenitors" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transitional B cells" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mature B cells" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monocytes" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stomach epithelia" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Small intestine epithelia" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Colon epithelia" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Epidermal cells" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dermal fibroblasts" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Endothelial cells" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alveolar epithelial cells" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Alveolar macrophages" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Bronchial epithelial cells" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lung interstitial cells" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Adipocytes" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Myocytes" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cardiomyocytes" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Neurons" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Glial cells" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Hepatocytes" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kupffer cells" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stellate cells" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Colors" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Erythrocytes" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Neutrophils" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Thymocytes" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Mature T cells" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="B cells progenitors" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Transitional B cells" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Mature B cells" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Monocytes" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Stomach epithelia" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Small intestine epithelia" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Colon epithelia" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Epidermal cells" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Dermal fibroblasts" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Endothelial cells" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Alveolar epithelial cells" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Alveolar macrophages" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Bronchial epithelial cells" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Lung interstitial cells" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Adipocytes" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Myocytes" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Cardiomyocytes" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Neurons" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Glial cells" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Hepatocytes" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Kupffer cells" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Stellate cells" sheetId="27" state="visible" r:id="rId27"/>
   </sheets>
   <externalReferences>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28"/>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29"/>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30"/>
-    <externalReference xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31"/>
+    <externalReference r:id="rId28"/>
+    <externalReference r:id="rId29"/>
+    <externalReference r:id="rId30"/>
+    <externalReference r:id="rId31"/>
   </externalReferences>
   <definedNames>
     <definedName name="age">[1]GlialCellsLifeSpan!$X:$X</definedName>
@@ -552,12 +552,80 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="HumanCellsSummary"/>
       <sheetName val="GIT#"/>
@@ -813,8 +881,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="TOC"/>
       <sheetName val="TotalBacteria"/>
@@ -880,8 +948,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="voroni data"/>
       <sheetName val="num vs. lifespan"/>
@@ -949,8 +1017,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
       <sheetName val="gut bacteria"/>
@@ -1306,7 +1374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor theme="0" tint="-0.0499893185216834"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1906,7 +1974,7 @@
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
   <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1983,7 +2051,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.5</v>
+        <v>13</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1991,7 +2059,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.3</v>
+        <v>9</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -2006,7 +2074,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5000000000</v>
+        <v>1300000000</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2014,7 +2082,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1100000000</v>
+        <v>900000000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2052,7 +2120,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2060,7 +2128,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2097,11 +2165,13 @@
           <t>lifespan in rodents</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>days</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>additive uncertainty</t>
@@ -2114,11 +2184,13 @@
           <t>extrapolated cellular turnover rate</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>cells per day</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>additive uncertainty</t>
@@ -2131,11 +2203,13 @@
           <t>extrapolated cellular mass turnover rate</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>grams per day</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>additive uncertainty</t>
@@ -2219,7 +2293,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.8</v>
+        <v>5.3</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2227,7 +2301,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -2242,7 +2316,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42000000000</v>
+        <v>22000000000</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2250,7 +2324,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>12000000000</v>
+        <v>8000000000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2288,7 +2362,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2296,7 +2370,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2333,11 +2407,13 @@
           <t>lifespan in rodents</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>days</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>additive uncertainty</t>
@@ -2350,11 +2426,13 @@
           <t>extrapolated cellular turnover rate</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>cells per day</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>additive uncertainty</t>
@@ -2367,11 +2445,13 @@
           <t>extrapolated cellular mass turnover rate</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>grams per day</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>additive uncertainty</t>
@@ -2455,7 +2535,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -2478,7 +2558,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20000000000</v>
+        <v>17000000000</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -2486,7 +2566,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8000000000</v>
+        <v>6000000000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -2524,7 +2604,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -2532,7 +2612,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2569,11 +2649,13 @@
           <t>lifespan in rodents</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>days</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>additive uncertainty</t>
@@ -2586,11 +2668,13 @@
           <t>extrapolated cellular turnover rate</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>cells per day</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>additive uncertainty</t>
@@ -2603,11 +2687,13 @@
           <t>extrapolated cellular mass turnover rate</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>grams per day</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>additive uncertainty</t>
@@ -5758,13 +5844,11 @@
           <t>lifespan</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>days</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>uncertainty by multiplication factor</t>
@@ -5777,13 +5861,11 @@
           <t>cellular turnover rate</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>cells per day</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>uncertainty by multiplication factor</t>
@@ -5819,13 +5901,11 @@
           <t>cellular mass turnover rate</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>grams per day</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>uncertainty by multiplication factor</t>
@@ -5999,13 +6079,11 @@
           <t>lifespan</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>days</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>uncertainty by multiplication factor</t>
@@ -6018,13 +6096,11 @@
           <t>cellular turnover rate</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>cells per day</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>uncertainty by multiplication factor</t>
@@ -6060,13 +6136,11 @@
           <t>cellular mass turnover rate</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>grams per day</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>uncertainty by multiplication factor</t>
@@ -6240,13 +6314,11 @@
           <t>lifespan</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
           <t>days</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>uncertainty by multiplication factor</t>
@@ -6259,13 +6331,11 @@
           <t>cellular turnover rate</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>cells per day</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>uncertainty by multiplication factor</t>
@@ -6301,13 +6371,11 @@
           <t>cellular mass turnover rate</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>grams per day</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>uncertainty by multiplication factor</t>
@@ -6491,7 +6559,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6514,7 +6582,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>11000000000</v>
+        <v>15000000000</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -6560,7 +6628,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
